--- a/biology/Botanique/Rhynchothecaceae/Rhynchothecaceae.xlsx
+++ b/biology/Botanique/Rhynchothecaceae/Rhynchothecaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Rhynchothecaceae Endl.  sont une petite famille de plantes dicotylédones. 
 Quand elle était valide, c'était une toute petite famille originaire d'Amérique du Sud.
-Son unique espèce, Rhynchotheca spinosa (es) Ruiz &amp; Pav., fut décrite par Hipólito Ruiz López et José Antonio Pavón et publiée en 1798 dans Systema Vegetabilium Florae Peruvianae et Chilensis (es)[1].
+Son unique espèce, Rhynchotheca spinosa (es) Ruiz &amp; Pav., fut décrite par Hipólito Ruiz López et José Antonio Pavón et publiée en 1798 dans Systema Vegetabilium Florae Peruvianae et Chilensis (es).
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Rhynchotheca, nom latinisé des mots grecs anciens ῥύγχος / rhúnkhos, « groin ; nez ou museau d'un animal ; bec d’un oiseau »), et θήκη / thêkê, « étui, boîte, caisse ») en référence aux fruits dont les graines sont enfermées dans des loges terminées en pointe[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Rhynchotheca, nom latinisé des mots grecs anciens ῥύγχος / rhúnkhos, « groin ; nez ou museau d'un animal ; bec d’un oiseau »), et θήκη / thêkê, « étui, boîte, caisse ») en référence aux fruits dont les graines sont enfermées dans des loges terminées en pointe.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille a rarement été reconnue que ce soit par la taxonomie végétale classique, ou par les systèmes APG 1998, APG II (2003), APG III (2009) ou APG IV (2016). 
 Elle a été incorporée aux Francoaceae qui regroupe les espèces des quatre familles suivantes : Bersamaceae (genre Bersama (en)), Ledocarpaceae, Rhynchothecaceae et Vivianiaceae.
